--- a/df_preworkout.xlsx
+++ b/df_preworkout.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kayliezapanta/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1A2538-8D12-4440-832C-D69DD3654417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FC6585-EF5E-F146-8A80-FDECEDF85DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1840" yWindow="2520" windowWidth="27640" windowHeight="15520" xr2:uid="{4F2F15C7-D0F3-4940-B42E-D517B20F079C}"/>
+    <workbookView xWindow="0" yWindow="4800" windowWidth="27640" windowHeight="15520" xr2:uid="{4F2F15C7-D0F3-4940-B42E-D517B20F079C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,12 +59,6 @@
     <t>Q21</t>
   </si>
   <si>
-    <t>Tropical Punch Workout Boost</t>
-  </si>
-  <si>
-    <t>Hawaiian Punch Pre-Workout</t>
-  </si>
-  <si>
     <t>Q25_1</t>
   </si>
   <si>
@@ -96,6 +90,12 @@
   </si>
   <si>
     <t>SubjectID</t>
+  </si>
+  <si>
+    <t>LIV_Tropical Punch Workout Boost</t>
+  </si>
+  <si>
+    <t>C4_Hawaiian Punch Pre-Workout</t>
   </si>
 </sst>
 </file>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB235BE6-A2CD-FC4D-82EE-5BBBB6D1BD96}">
   <dimension ref="A1:R205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R4" sqref="R1:R1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -506,7 +506,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -530,34 +530,34 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -565,7 +565,7 @@
         <v>1101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -617,7 +617,7 @@
         <v>1101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -669,7 +669,7 @@
         <v>1102</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -721,7 +721,7 @@
         <v>1102</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -775,7 +775,7 @@
         <v>1103</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -827,7 +827,7 @@
         <v>1103</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -879,7 +879,7 @@
         <v>1104</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -933,7 +933,7 @@
         <v>1104</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -985,7 +985,7 @@
         <v>1105</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -1039,7 +1039,7 @@
         <v>1105</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -1093,7 +1093,7 @@
         <v>1106</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -1145,7 +1145,7 @@
         <v>1106</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -1199,7 +1199,7 @@
         <v>1108</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -1251,7 +1251,7 @@
         <v>1108</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -1303,7 +1303,7 @@
         <v>1109</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -1355,7 +1355,7 @@
         <v>1109</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -1409,7 +1409,7 @@
         <v>1110</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -1461,7 +1461,7 @@
         <v>1110</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -1515,7 +1515,7 @@
         <v>1111</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -1567,7 +1567,7 @@
         <v>1111</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -1619,7 +1619,7 @@
         <v>1112</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -1671,7 +1671,7 @@
         <v>1112</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -1723,7 +1723,7 @@
         <v>1113</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -1775,7 +1775,7 @@
         <v>1113</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -1827,7 +1827,7 @@
         <v>1114</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -1879,7 +1879,7 @@
         <v>1114</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -1933,7 +1933,7 @@
         <v>1115</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -1985,7 +1985,7 @@
         <v>1115</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -2039,7 +2039,7 @@
         <v>1116</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -2091,7 +2091,7 @@
         <v>1116</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -2143,7 +2143,7 @@
         <v>1117</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -2195,7 +2195,7 @@
         <v>1117</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -2247,7 +2247,7 @@
         <v>1118</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -2299,7 +2299,7 @@
         <v>1118</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -2351,7 +2351,7 @@
         <v>1119</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -2407,7 +2407,7 @@
         <v>1119</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -2459,7 +2459,7 @@
         <v>1120</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
@@ -2511,7 +2511,7 @@
         <v>1120</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
@@ -2565,7 +2565,7 @@
         <v>2101</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
@@ -2617,7 +2617,7 @@
         <v>2101</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -2671,7 +2671,7 @@
         <v>2102</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
@@ -2723,7 +2723,7 @@
         <v>2102</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -2775,7 +2775,7 @@
         <v>2103</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -2827,7 +2827,7 @@
         <v>2103</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
@@ -2879,7 +2879,7 @@
         <v>2104</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
@@ -2931,7 +2931,7 @@
         <v>2104</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
@@ -2983,7 +2983,7 @@
         <v>2105</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
@@ -3035,7 +3035,7 @@
         <v>2105</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
@@ -3087,7 +3087,7 @@
         <v>2106</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         <v>2106</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
@@ -3193,7 +3193,7 @@
         <v>2107</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -3245,7 +3245,7 @@
         <v>2107</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
@@ -3297,7 +3297,7 @@
         <v>2108</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
@@ -3349,7 +3349,7 @@
         <v>2108</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
@@ -3403,7 +3403,7 @@
         <v>2109</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
@@ -3455,7 +3455,7 @@
         <v>2109</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -3509,7 +3509,7 @@
         <v>2111</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -3561,7 +3561,7 @@
         <v>2111</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
@@ -3615,7 +3615,7 @@
         <v>2112</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
@@ -3667,7 +3667,7 @@
         <v>2112</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
@@ -3721,7 +3721,7 @@
         <v>2113</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
@@ -3773,7 +3773,7 @@
         <v>2113</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
@@ -3827,7 +3827,7 @@
         <v>2114</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -3879,7 +3879,7 @@
         <v>2114</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
@@ -3931,7 +3931,7 @@
         <v>2116</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -3987,7 +3987,7 @@
         <v>2116</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
@@ -4039,7 +4039,7 @@
         <v>2117</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
@@ -4091,7 +4091,7 @@
         <v>2117</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
@@ -4143,7 +4143,7 @@
         <v>2118</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
@@ -4195,7 +4195,7 @@
         <v>2118</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
@@ -4247,7 +4247,7 @@
         <v>2119</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
@@ -4299,7 +4299,7 @@
         <v>2119</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C73" s="1">
         <v>2</v>
@@ -4351,7 +4351,7 @@
         <v>2120</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
@@ -4403,7 +4403,7 @@
         <v>2120</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
@@ -4455,7 +4455,7 @@
         <v>2121</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
@@ -4507,7 +4507,7 @@
         <v>2121</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
@@ -4559,7 +4559,7 @@
         <v>2122</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
@@ -4611,7 +4611,7 @@
         <v>2122</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C79" s="1">
         <v>1</v>
@@ -4663,7 +4663,7 @@
         <v>2124</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C80" s="1">
         <v>1</v>
@@ -4715,7 +4715,7 @@
         <v>2124</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C81" s="1">
         <v>1</v>
@@ -4771,7 +4771,7 @@
         <v>2125</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C82" s="1">
         <v>1</v>
@@ -4823,7 +4823,7 @@
         <v>2125</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C83" s="1">
         <v>1</v>
@@ -4875,7 +4875,7 @@
         <v>2126</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C84" s="1">
         <v>1</v>
@@ -4927,7 +4927,7 @@
         <v>2126</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C85" s="1">
         <v>1</v>
@@ -4979,7 +4979,7 @@
         <v>3101</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C86" s="1">
         <v>1</v>
@@ -5031,7 +5031,7 @@
         <v>3101</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C87" s="1">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         <v>3102</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C88" s="1">
         <v>1</v>
@@ -5137,7 +5137,7 @@
         <v>3102</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C89" s="1">
         <v>1</v>
@@ -5193,7 +5193,7 @@
         <v>3103</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C90" s="1">
         <v>1</v>
@@ -5245,7 +5245,7 @@
         <v>3103</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C91" s="1">
         <v>1</v>
@@ -5299,7 +5299,7 @@
         <v>3104</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C92" s="1">
         <v>1</v>
@@ -5351,7 +5351,7 @@
         <v>3104</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C93" s="1">
         <v>1</v>
@@ -5403,7 +5403,7 @@
         <v>3105</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C94" s="1">
         <v>1</v>
@@ -5455,7 +5455,7 @@
         <v>3105</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C95" s="1">
         <v>1</v>
@@ -5509,7 +5509,7 @@
         <v>3106</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C96" s="1">
         <v>1</v>
@@ -5561,7 +5561,7 @@
         <v>3106</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C97" s="1">
         <v>1</v>
@@ -5615,7 +5615,7 @@
         <v>3107</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C98" s="1">
         <v>1</v>
@@ -5667,7 +5667,7 @@
         <v>3107</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C99" s="1">
         <v>1</v>
@@ -5719,7 +5719,7 @@
         <v>3108</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C100" s="1">
         <v>1</v>
@@ -5771,7 +5771,7 @@
         <v>3108</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C101" s="1">
         <v>1</v>
@@ -5823,7 +5823,7 @@
         <v>3109</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C102" s="1">
         <v>1</v>
@@ -5875,7 +5875,7 @@
         <v>3109</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
@@ -5927,7 +5927,7 @@
         <v>3110</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C104" s="1">
         <v>1</v>
@@ -5979,7 +5979,7 @@
         <v>3110</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C105" s="1">
         <v>1</v>
@@ -6031,7 +6031,7 @@
         <v>3111</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C106" s="1">
         <v>1</v>
@@ -6085,7 +6085,7 @@
         <v>3111</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C107" s="1">
         <v>1</v>
@@ -6137,7 +6137,7 @@
         <v>3112</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C108" s="1">
         <v>1</v>
@@ -6189,7 +6189,7 @@
         <v>3112</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C109" s="1">
         <v>1</v>
@@ -6243,7 +6243,7 @@
         <v>3114</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C110" s="1">
         <v>1</v>
@@ -6295,7 +6295,7 @@
         <v>3114</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C111" s="1">
         <v>1</v>
@@ -6347,7 +6347,7 @@
         <v>3115</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C112" s="1">
         <v>1</v>
@@ -6399,7 +6399,7 @@
         <v>3115</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C113" s="1">
         <v>1</v>
@@ -6451,7 +6451,7 @@
         <v>3116</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C114" s="1">
         <v>1</v>
@@ -6503,7 +6503,7 @@
         <v>3116</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C115" s="1">
         <v>1</v>
@@ -6555,7 +6555,7 @@
         <v>3117</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C116" s="1">
         <v>1</v>
@@ -6607,7 +6607,7 @@
         <v>3117</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C117" s="1">
         <v>1</v>
@@ -6659,7 +6659,7 @@
         <v>3118</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C118" s="1">
         <v>1</v>
@@ -6713,7 +6713,7 @@
         <v>3118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C119" s="1">
         <v>1</v>
@@ -6767,7 +6767,7 @@
         <v>3119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C120" s="1">
         <v>1</v>
@@ -6819,7 +6819,7 @@
         <v>3119</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C121" s="1">
         <v>1</v>
@@ -6871,7 +6871,7 @@
         <v>3120</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C122" s="1">
         <v>1</v>
@@ -6923,7 +6923,7 @@
         <v>3120</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C123" s="1">
         <v>1</v>
@@ -6975,7 +6975,7 @@
         <v>3121</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C124" s="1">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         <v>3121</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C125" s="1">
         <v>1</v>
@@ -7081,7 +7081,7 @@
         <v>3122</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C126" s="1">
         <v>1</v>
@@ -7133,7 +7133,7 @@
         <v>3122</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C127" s="1">
         <v>1</v>
@@ -7185,7 +7185,7 @@
         <v>4101</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C128" s="1">
         <v>1</v>
@@ -7237,7 +7237,7 @@
         <v>4101</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C129" s="1">
         <v>1</v>
@@ -7291,7 +7291,7 @@
         <v>4102</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C130" s="1">
         <v>1</v>
@@ -7343,7 +7343,7 @@
         <v>4102</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C131" s="1">
         <v>1</v>
@@ -7397,7 +7397,7 @@
         <v>4103</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C132" s="1">
         <v>1</v>
@@ -7449,7 +7449,7 @@
         <v>4103</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C133" s="1">
         <v>1</v>
@@ -7501,7 +7501,7 @@
         <v>4104</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C134" s="1">
         <v>1</v>
@@ -7553,7 +7553,7 @@
         <v>4104</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C135" s="1">
         <v>1</v>
@@ -7607,7 +7607,7 @@
         <v>4105</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C136" s="1">
         <v>1</v>
@@ -7659,7 +7659,7 @@
         <v>4105</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C137" s="1">
         <v>1</v>
@@ -7711,7 +7711,7 @@
         <v>4106</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C138" s="1">
         <v>1</v>
@@ -7763,7 +7763,7 @@
         <v>4106</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C139" s="1">
         <v>1</v>
@@ -7819,7 +7819,7 @@
         <v>4107</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C140" s="1">
         <v>1</v>
@@ -7871,7 +7871,7 @@
         <v>4107</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C141" s="1">
         <v>1</v>
@@ -7923,7 +7923,7 @@
         <v>4108</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C142" s="1">
         <v>1</v>
@@ -7975,7 +7975,7 @@
         <v>4108</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C143" s="1">
         <v>1</v>
@@ -8027,7 +8027,7 @@
         <v>4110</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C144" s="1">
         <v>1</v>
@@ -8079,7 +8079,7 @@
         <v>4110</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C145" s="1">
         <v>1</v>
@@ -8133,7 +8133,7 @@
         <v>4111</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C146" s="1">
         <v>1</v>
@@ -8185,7 +8185,7 @@
         <v>4111</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C147" s="1">
         <v>1</v>
@@ -8237,7 +8237,7 @@
         <v>4112</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C148" s="1">
         <v>1</v>
@@ -8289,7 +8289,7 @@
         <v>4112</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C149" s="1">
         <v>1</v>
@@ -8341,7 +8341,7 @@
         <v>4113</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C150" s="1">
         <v>1</v>
@@ -8393,7 +8393,7 @@
         <v>4113</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C151" s="1">
         <v>1</v>
@@ -8445,7 +8445,7 @@
         <v>4115</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C152" s="1">
         <v>1</v>
@@ -8497,7 +8497,7 @@
         <v>4115</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C153" s="1">
         <v>1</v>
@@ -8549,7 +8549,7 @@
         <v>4116</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C154" s="1">
         <v>1</v>
@@ -8601,7 +8601,7 @@
         <v>4116</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C155" s="1">
         <v>1</v>
@@ -8653,7 +8653,7 @@
         <v>4117</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C156" s="1">
         <v>1</v>
@@ -8709,7 +8709,7 @@
         <v>4117</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C157" s="1">
         <v>1</v>
@@ -8765,7 +8765,7 @@
         <v>4118</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C158" s="1">
         <v>1</v>
@@ -8817,7 +8817,7 @@
         <v>4118</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C159" s="1">
         <v>1</v>
@@ -8869,7 +8869,7 @@
         <v>4119</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C160" s="1">
         <v>1</v>
@@ -8921,7 +8921,7 @@
         <v>4119</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C161" s="1">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         <v>4120</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C162" s="1">
         <v>1</v>
@@ -9025,7 +9025,7 @@
         <v>4120</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C163" s="1">
         <v>1</v>
@@ -9077,7 +9077,7 @@
         <v>4121</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C164" s="1">
         <v>1</v>
@@ -9129,7 +9129,7 @@
         <v>4121</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C165" s="1">
         <v>1</v>
@@ -9183,7 +9183,7 @@
         <v>4122</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C166" s="1">
         <v>1</v>
@@ -9235,7 +9235,7 @@
         <v>4122</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C167" s="1">
         <v>1</v>
@@ -9287,7 +9287,7 @@
         <v>4123</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C168" s="1">
         <v>1</v>
@@ -9339,7 +9339,7 @@
         <v>4123</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C169" s="1">
         <v>1</v>
@@ -9391,7 +9391,7 @@
         <v>4124</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C170" s="1">
         <v>1</v>
@@ -9443,7 +9443,7 @@
         <v>4124</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C171" s="1">
         <v>1</v>
@@ -9497,7 +9497,7 @@
         <v>5101</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C172" s="1">
         <v>1</v>
@@ -9549,7 +9549,7 @@
         <v>5101</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C173" s="1">
         <v>1</v>
@@ -9601,7 +9601,7 @@
         <v>5102</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C174" s="1">
         <v>1</v>
@@ -9653,7 +9653,7 @@
         <v>5102</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C175" s="1">
         <v>1</v>
@@ -9705,7 +9705,7 @@
         <v>5104</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C176" s="1">
         <v>1</v>
@@ -9757,7 +9757,7 @@
         <v>5104</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C177" s="1">
         <v>1</v>
@@ -9809,7 +9809,7 @@
         <v>5106</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C178" s="1">
         <v>1</v>
@@ -9861,7 +9861,7 @@
         <v>5106</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C179" s="1">
         <v>1</v>
@@ -9915,7 +9915,7 @@
         <v>5107</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C180" s="1">
         <v>1</v>
@@ -9967,7 +9967,7 @@
         <v>5107</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C181" s="1">
         <v>1</v>
@@ -10019,7 +10019,7 @@
         <v>5108</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C182" s="1">
         <v>1</v>
@@ -10073,7 +10073,7 @@
         <v>5108</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C183" s="1">
         <v>1</v>
@@ -10125,7 +10125,7 @@
         <v>5110</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C184" s="1">
         <v>1</v>
@@ -10177,7 +10177,7 @@
         <v>5110</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C185" s="1">
         <v>1</v>
@@ -10231,7 +10231,7 @@
         <v>5111</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C186" s="1">
         <v>1</v>
@@ -10283,7 +10283,7 @@
         <v>5111</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C187" s="1">
         <v>1</v>
@@ -10335,7 +10335,7 @@
         <v>5112</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C188" s="1">
         <v>1</v>
@@ -10387,7 +10387,7 @@
         <v>5112</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C189" s="1">
         <v>1</v>
@@ -10439,7 +10439,7 @@
         <v>5113</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C190" s="1">
         <v>1</v>
@@ -10491,7 +10491,7 @@
         <v>5113</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C191" s="1">
         <v>1</v>
@@ -10543,7 +10543,7 @@
         <v>5114</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C192" s="1">
         <v>1</v>
@@ -10595,7 +10595,7 @@
         <v>5114</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C193" s="1">
         <v>1</v>
@@ -10649,7 +10649,7 @@
         <v>5115</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C194" s="1">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         <v>5115</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C195" s="1">
         <v>1</v>
@@ -10755,7 +10755,7 @@
         <v>5116</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C196" s="1">
         <v>1</v>
@@ -10807,7 +10807,7 @@
         <v>5116</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C197" s="1">
         <v>1</v>
@@ -10859,7 +10859,7 @@
         <v>5117</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C198" s="1">
         <v>1</v>
@@ -10913,7 +10913,7 @@
         <v>5117</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C199" s="1">
         <v>1</v>
@@ -10965,7 +10965,7 @@
         <v>5118</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C200" s="1">
         <v>1</v>
@@ -11019,7 +11019,7 @@
         <v>5118</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C201" s="1">
         <v>1</v>
@@ -11071,7 +11071,7 @@
         <v>5119</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C202" s="1">
         <v>1</v>
@@ -11123,7 +11123,7 @@
         <v>5119</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C203" s="1">
         <v>1</v>
@@ -11177,7 +11177,7 @@
         <v>5120</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C204" s="1">
         <v>1</v>
@@ -11231,7 +11231,7 @@
         <v>5120</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C205" s="1">
         <v>1</v>
